--- a/biology/Botanique/Epixiphium/Epixiphium.xlsx
+++ b/biology/Botanique/Epixiphium/Epixiphium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Epixiphium est un genre de végétaux de la famille des Scrophulariaceae, selon la classification classique de Cronquist (1981)[1]. Il n'existe pas dans la classification APG III, et est inclus au sein du genre Maurandya. 
+Epixiphium est un genre de végétaux de la famille des Scrophulariaceae, selon la classification classique de Cronquist (1981). Il n'existe pas dans la classification APG III, et est inclus au sein du genre Maurandya. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Epixiphium wislizeni (Engelm. ex Gray) Munz</t>
